--- a/Backend/DM/DM_Resource_Keywords.xlsx
+++ b/Backend/DM/DM_Resource_Keywords.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MINE\temp\navigated_learning\Backend\DM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE4D511-2BA3-4A27-9335-D0AF54BE3A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="3iVEDYQViSGYUugIE1YmHKKmxJTAMNRMXRZPkfW4M7s="/>
@@ -16,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>name</t>
   </si>
@@ -33,9 +42,6 @@
     <t>Logical Equivalence</t>
   </si>
   <si>
-    <t>Logical identities, tautology, contradiction, contingency, De Morgan's law</t>
-  </si>
-  <si>
     <t>SAT Problem</t>
   </si>
   <si>
@@ -99,9 +105,6 @@
     <t>Tutorial 2: Part I</t>
   </si>
   <si>
-    <t>Valid and Invalid Arguments, Infinitely Many Primes, Godel's Proof, Proof by Contradiction</t>
-  </si>
-  <si>
     <t>Tutorial 2: Part II</t>
   </si>
   <si>
@@ -135,9 +138,6 @@
     <t>Warshall's Algorithm for Computing Transitive Closure</t>
   </si>
   <si>
-    <t>Connectivity Relationship, Warshall's Algorithm</t>
-  </si>
-  <si>
     <t>Tutorial 3</t>
   </si>
   <si>
@@ -195,9 +195,6 @@
     <t>Cantor's Diagonalization Argument</t>
   </si>
   <si>
-    <t>set of binary strings of infinite length, Cantor's Diagonalization Argument, the set of real numbers, Cantor's theorem</t>
-  </si>
-  <si>
     <t>Uncomputable Functions</t>
   </si>
   <si>
@@ -282,21 +279,12 @@
     <t>Graph Theory Basics</t>
   </si>
   <si>
-    <t>Directed and undirected graphs, Handshaking Theorem, Euler's Theorem, Simple graphs, Bipartite Graphs</t>
-  </si>
-  <si>
     <t>Matching</t>
   </si>
   <si>
-    <t>Bipartite Graphs and Matching, Maximal and Maximum matching, Complete matching, Hall's Marriage Theorem</t>
-  </si>
-  <si>
     <t>Proof of Hall's Marriage Theorem</t>
   </si>
   <si>
-    <t>Hall's Marriage Theorem for Complete Matching, Necessary and Sufficient condition, Proof by induction</t>
-  </si>
-  <si>
     <t>Various Operations on Graphs</t>
   </si>
   <si>
@@ -315,15 +303,9 @@
     <t>Euler Path and Euler Circuit</t>
   </si>
   <si>
-    <t>Euler Circuit, Euler Path, Characterization of Euler Circuit, Fleury's algorithm, Characterization of Euler Path</t>
-  </si>
-  <si>
     <t>Hamiltonian Circuit</t>
   </si>
   <si>
-    <t>Hamilton Circuits, Hamilton Paths, Dirac's Theorem, Ore's Theorem</t>
-  </si>
-  <si>
     <t>Vertex and Edge Coloring</t>
   </si>
   <si>
@@ -351,15 +333,6 @@
     <t>Prime Numbers and GCD</t>
   </si>
   <si>
-    <t>Primality Testing, Greatest Common Divisor, Euclid's Algorithm, Lame's Theorem</t>
-  </si>
-  <si>
-    <t>Properties of GCD and Bezout's Theorem</t>
-  </si>
-  <si>
-    <t>Bezout's Theorem, Extended Euclid's algorithm, Modular Multiplicative Inverse, Necessary and Sufficient Condition</t>
-  </si>
-  <si>
     <t>Linear Congruence Equations and Chinese Remainder Theorem</t>
   </si>
   <si>
@@ -369,15 +342,9 @@
     <t>Uniqueness Proof of the CRT</t>
   </si>
   <si>
-    <t>Divisibility Properties, Euclid's Lemma, The Chinese Remainder Theorem (CRT), CRT Uniqueness Proof, CRT Application</t>
-  </si>
-  <si>
     <t>Fermat's Little Theorem, Primality Testing and Carmichael Numbers</t>
   </si>
   <si>
-    <t>Fermat's Little Theorem, Application of Fermat's Little Theorem, Primality Testing, Pseudoprimes, Carmichael Numbers</t>
-  </si>
-  <si>
     <t>Group Theory</t>
   </si>
   <si>
@@ -393,18 +360,9 @@
     <t>Subgroups</t>
   </si>
   <si>
-    <t>characterization for subgroups, Left Coset, Right Coset, Lagrange's Theorem</t>
-  </si>
-  <si>
     <t>More Applications of Groups</t>
   </si>
   <si>
-    <t>Public-key Cryptography, El Gamal Encryption Scheme, Group , Euler's Totient Function, RSA Function</t>
-  </si>
-  <si>
-    <t>Discrete Logarithm and Cryptographic Applications</t>
-  </si>
-  <si>
     <t>Discrete Logarithm, Discrete Logarithm Problem, Cryptography, Symmetric-key Encryption, Diffie-Hellman Key-Exchange Protocol</t>
   </si>
   <si>
@@ -441,30 +399,302 @@
     <t>Applications of Finite Fields</t>
   </si>
   <si>
-    <t>Secret Sharing, Shamir's Secret-Sharing Scheme, Polynomials Over a Finite Field, Lagrange's interpolation, privacy</t>
+    <t>Properties of GCD and BÃ©zout's Theorem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrete Logarithm and Cryptographic Applications </t>
+  </si>
+  <si>
+    <t>Logical identities, tautology, contradiction, contingency, De Morganâ€™s law</t>
+  </si>
+  <si>
+    <t>Valid and Invalid Arguments, Infinitely Many Primes, GÃ¶delâ€™s Proof, Proof by Contradiction</t>
+  </si>
+  <si>
+    <t>Connectivity Relationship, Warshallâ€™s Algorithm</t>
+  </si>
+  <si>
+    <t>set of binary strings of infinite length, Cantorâ€™s Diagonalization Argument, the set of real numbers, Cantorâ€™s theorem</t>
+  </si>
+  <si>
+    <t>Characteristic equation, characteristic roots, distinct characteristic roots, repeated characteristic roots;</t>
+  </si>
+  <si>
+    <t>Directed and undirected graphs, Handshaking Theorem, Eulerâ€™s Theorem, Simple graphs, Bipartite Graphs</t>
+  </si>
+  <si>
+    <t>Bipartite Graphs and Matching, Maximal and Maximum matching, Complete matching, Hallâ€™s Marriage Theorem</t>
+  </si>
+  <si>
+    <t>Hallâ€™s Marriage Theorem for Complete Matching, Necessary and Sufficient condition, Proof by induction</t>
+  </si>
+  <si>
+    <t>Ramsay number, tree, self-complementary graph, regular graph</t>
+  </si>
+  <si>
+    <t>Euler Circuit, Euler Path, Characterization of Euler Circuit, Fleuryâ€™s algorithm, Characterization of Euler Path</t>
+  </si>
+  <si>
+    <t>Hamilton Circuits, Hamilton Paths, Diracâ€™s Theorem, Oreâ€™s Theorem</t>
+  </si>
+  <si>
+    <t>Primality Testing, Greatest Common Divisor, Euclidâ€™s Algorithm, Lameâ€™s Theorem</t>
+  </si>
+  <si>
+    <t>BÃ©zoutâ€™s Theorem, Extended Euclidâ€™s algorithm, Modular Multiplicative Inverse, Necessary and Sufficient Condition</t>
+  </si>
+  <si>
+    <t>Divisibility Properties, Euclidâ€™s Lemma, The Chinese Remainder Theorem (CRT), CRT Uniqueness Proof, CRT Application</t>
+  </si>
+  <si>
+    <t>Fermatâ€™s Little Theorem, Application of Fermatâ€™s Little Theorem, Primality Testing, Pseudoprimes, Carmichael Numbers</t>
+  </si>
+  <si>
+    <t>characterization for subgroups, Left Coset, Right Coset, Lagrangeâ€™s Theorem</t>
+  </si>
+  <si>
+    <t>Public-key Cryptography, El Gamal Encryption Scheme, Group , Eulerâ€™s Totient Function, RSA Function</t>
+  </si>
+  <si>
+    <t>Secret Sharing, Shamirâ€™s  Secret-Sharing Scheme, Polynomials Over a Finite Field, Lagrangeâ€™s interpolation, privacy</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sPQ3ptUMltA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=55apA1-8xOM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZqFVJiXqgYI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lqcnhFKWoNk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3u8lW40rZDA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cziNHYIGPmk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sti1mLMVsps</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4nXfN4-rqdU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=z1ikaJjZjWI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=D817ZE_NOjg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d-K-pDALIL0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ic5PHlKXC-s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9n18w4SpG8g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oVDS5o24Itw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6jBu-ls3ZwU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=D8mee915ejI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bxEsA9vOAvo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=G5J84UvfNNQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hWeN4pGmLq4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tCe5c5TUsSo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=x-7JHErUgfA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nPy4YJT_1GQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fKPll1NigOE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RVACT19HC14</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QxgxePCW8wM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hyNkcSEI2f8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=px4Npzybm6g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2jKuc_4ukH4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=E0QOfw3HihQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hkTL1LlFuOs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cgv3buDjkKQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=781JhFTQpyQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nSgrzxzimVM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xdsnR1BY7SU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VBiuvWJ8_xc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RTfhmK8SVOs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bXVnIIEmSVo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XCJxclU_oR0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nQaQ6NSB-1s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zz11Ra2hZLA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XxuBLpZqvR0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rBLuvLDutdY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mqZsV86mEIU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HF4HZvLeWxc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=33Axwm0t63Q</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=l1Dwe8YL6Ws</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=KBIpWbmwz4U</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MN0RdGNMsFQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ck5MZu7Tv20</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cDv1Afkvt00</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=utBfKsYUwe8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0nEIFcSpbBk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=j3lrgY_sH44</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F1EfXa_qWm4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZMDTndFMgks</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QzOx5kK5lAs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=SX2bRKsmIBc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Gj23DQIoB58</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=k2jW-zbVMIo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GUvvY-bPZWQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ABFLX5iYZ6c</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kvT90WH__5I</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=woAgep6ESTk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=M_GupgLfTP4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Q6y93cCpms4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gs66AqWvNNc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mc_6yftEwzg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pfHMtIzqlJ0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Tagv4h8eqac</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IAyGh6xXvMg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=psj6gKOv2Rg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Inter"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Inter"/>
     </font>
@@ -474,36 +704,45 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -693,24 +932,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="54.0"/>
-    <col customWidth="1" min="2" max="6" width="12.63"/>
+    <col min="1" max="1" width="54" customWidth="1"/>
+    <col min="2" max="2" width="102.7109375" customWidth="1"/>
+    <col min="3" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,582 +963,795 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A13" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="s">
+      <c r="B14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="2" t="s">
+      <c r="C15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="1" t="s">
+      <c r="C16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="2" t="s">
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="2" t="s">
+      <c r="C18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="2" t="s">
+      <c r="C19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C22" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="C24" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="C25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A27" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="C27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="C28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A29" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C29" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A30" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="2" t="s">
+      <c r="B30" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C30" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="2" t="s">
+      <c r="C31" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="2" t="s">
+      <c r="C32" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="2" t="s">
+      <c r="C33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="2" t="s">
+      <c r="C34" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A35" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="2" t="s">
+      <c r="C35" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A36" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B36" s="3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="2" t="s">
+      <c r="C36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A37" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B37" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A38" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C38" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A39" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="2" t="s">
+      <c r="C39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A40" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="2" t="s">
+      <c r="C40" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B41" s="3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="2" t="s">
+      <c r="C41" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B42" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="2" t="s">
+      <c r="C42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="2" t="s">
+      <c r="C43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="2" t="s">
+      <c r="C44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B45" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A46" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="2" t="s">
+      <c r="B46" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A47" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B47" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A48" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="C48" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A49" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="C49" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A50" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="2" t="s">
+      <c r="B50" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A51" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B51" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A52" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="2" t="s">
+      <c r="B52" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A53" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B53" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="2" t="s">
+      <c r="C53" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A54" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="2" t="s">
+      <c r="C54" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A55" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="2" t="s">
+      <c r="B55" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="C55" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A56" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C56" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A57" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="2" t="s">
+      <c r="B57" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A58" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A59" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="2" t="s">
+      <c r="C59" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A60" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B60" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A61" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="2" t="s">
+      <c r="B61" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A62" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="2" t="s">
+      <c r="C62" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A63" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="2" t="s">
+      <c r="C63" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A64" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B64" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A65" s="2" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="2" t="s">
+      <c r="B65" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A66" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="C66" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A67" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="C67" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A68" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="C68" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A69" s="2" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C69" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A70" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="C70" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A71" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="2" t="s">
+      <c r="B71" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="C71" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A72" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="B72" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
+        <v>143</v>
+      </c>
+      <c r="C72" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -2215,6 +2673,6 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>